--- a/Excel Project_by-Fizza.xlsx
+++ b/Excel Project_by-Fizza.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfe50aac5fca9c74/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2887E3BB-1300-4470-ACB4-591D32ADD926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:10000_{497DC0C7-61FE-4294-858F-ADA3A26D09D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836114F8-DE8F-40E0-BDAF-D7C8A77065AA}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="41">
   <si>
     <t>Region</t>
   </si>
@@ -468,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,13 +510,9 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
@@ -529,10 +525,6 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -564,19 +556,1828 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="306">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1551,15 +3352,15 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{D3AAF134-E1D1-4D41-B6A3-03AC8527726B}">
-      <tableStyleElement type="wholeTable" dxfId="107"/>
+      <tableStyleElement type="wholeTable" dxfId="305"/>
     </tableStyle>
     <tableStyle name="Slicer Style 2" pivot="0" table="0" count="6" xr9:uid="{602E0B60-A2EC-447D-AF62-B607F5EFD30D}">
-      <tableStyleElement type="wholeTable" dxfId="106"/>
-      <tableStyleElement type="headerRow" dxfId="105"/>
+      <tableStyleElement type="wholeTable" dxfId="304"/>
+      <tableStyleElement type="headerRow" dxfId="303"/>
     </tableStyle>
     <tableStyle name="Slicer Style 3" pivot="0" table="0" count="6" xr9:uid="{6CFA836B-29A9-48D6-A259-376A657B9BCA}">
-      <tableStyleElement type="wholeTable" dxfId="104"/>
-      <tableStyleElement type="headerRow" dxfId="103"/>
+      <tableStyleElement type="wholeTable" dxfId="302"/>
+      <tableStyleElement type="headerRow" dxfId="301"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2057,6 +3858,129 @@
           </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2367,29 +4291,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$15:$A$16</c:f>
+              <c:f>Dashboard!$A$15:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Thompson</c:v>
+                  <c:v>Parent</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sorvino</c:v>
+                  <c:v>Jones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Howard</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$B$15:$B$16</c:f>
+              <c:f>Dashboard!$B$15:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1203.1100000000001</c:v>
+                  <c:v>3102.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1283.6100000000001</c:v>
+                  <c:v>2363.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>536.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,7 +4687,7 @@
                   <c:v>Binder</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Pen Set</c:v>
+                  <c:v>Pen</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pencil</c:v>
@@ -2772,13 +4702,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.489999999999998</c:v>
+                  <c:v>8.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.99</c:v>
+                  <c:v>19.989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.99</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,10 +5110,10 @@
                   <c:v>Binder</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Desk</c:v>
+                  <c:v>Pen</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pen</c:v>
+                  <c:v>Pen Set</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Pencil</c:v>
@@ -3198,16 +5128,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5383,15 +7313,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
+      <xdr:colOff>1417320</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5406,8 +7336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4328160" y="0"/>
-          <a:ext cx="4259580" cy="1485900"/>
+          <a:off x="4145280" y="0"/>
+          <a:ext cx="4579620" cy="1501140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5443,6 +7373,9 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
         <a:p>
           <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
@@ -5509,15 +7442,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
+      <xdr:colOff>937260</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5532,8 +7465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4671060" y="30480"/>
-          <a:ext cx="3276600" cy="213360"/>
+          <a:off x="4991100" y="38100"/>
+          <a:ext cx="2964180" cy="213360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5574,13 +7507,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>853440</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -5611,7 +7544,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5379720" y="30480"/>
+          <a:off x="5707380" y="30480"/>
           <a:ext cx="205740" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5624,15 +7557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>845820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:colOff>822960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5649,8 +7582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5585460" y="30480"/>
-          <a:ext cx="1508760" cy="205740"/>
+          <a:off x="5905500" y="38100"/>
+          <a:ext cx="1188720" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5694,10 +7627,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6562,8 +8491,8 @@
     <pivotField showAll="0">
       <items count="4">
         <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6590,10 +8519,10 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -6606,76 +8535,76 @@
     <dataField name="Sum of Units" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="30">
+    <format dxfId="228">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="227">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="226">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="225">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="224">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="223">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="222">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="221">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="220">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="219">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="218">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="217">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="216">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="215">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="214">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="213">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="212">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="211">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="210">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="209">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -6684,7 +8613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="208">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -6693,7 +8622,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="207">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -6702,7 +8631,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="206">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -6711,7 +8640,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="205">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -6720,7 +8649,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="204">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -6729,7 +8658,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="203">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -6738,7 +8667,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="202">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -6782,13 +8711,13 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8B08FCD-C8ED-448C-8A75-EB28CDD4C135}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="F26:G29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="F26:G27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="4">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6801,15 +8730,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="1">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -6819,17 +8742,17 @@
     <dataField name="Count of Region" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="36">
+    <format dxfId="234">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="233">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="232">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -6838,7 +8761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="231">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -6847,10 +8770,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="230">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="229">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -6875,9 +8798,9 @@
     <pivotField showAll="0">
       <items count="12">
         <item h="1" x="5"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="8"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="7"/>
@@ -6909,7 +8832,7 @@
       <x/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="4"/>
@@ -6922,35 +8845,35 @@
     <dataField name="Average of Unit Cost" fld="5" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="63">
+    <format dxfId="261">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="260">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="259">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="258">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="257">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="256">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="255">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="254">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="253">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -6960,19 +8883,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="252">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="251">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="250">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="249">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="248">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -6982,22 +8905,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="247">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="246">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="245">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="244">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="243">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="242">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7006,7 +8929,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="241">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7015,7 +8938,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="240">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7024,7 +8947,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="239">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7033,7 +8956,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="238">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7042,7 +8965,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="237">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7051,7 +8974,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="236">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7060,7 +8983,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="235">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7095,13 +9018,13 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{602832CE-58FE-4EB9-A453-92FB4CD9F287}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A14:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A14:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="4">
         <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7129,12 +9052,15 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
     <i>
-      <x/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -7144,16 +9070,16 @@
     <dataField name="Sum of Total" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="39">
-    <format dxfId="102">
+    <format dxfId="300">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="299">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="298">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="297">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -7166,19 +9092,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="296">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="295">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="294">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="293">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="292">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -7191,19 +9117,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="291">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="290">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="289">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="288">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="287">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -7216,22 +9142,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="286">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="285">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="284">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="283">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="282">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="281">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7240,7 +9166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="280">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7249,7 +9175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="279">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7258,7 +9184,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="278">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7267,7 +9193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="277">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7276,7 +9202,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="276">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7285,7 +9211,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="275">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7294,7 +9220,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="274">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7303,7 +9229,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="273">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7312,7 +9238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="272">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7321,7 +9247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="271">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7330,7 +9256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="270">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7339,7 +9265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="269">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7348,7 +9274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="268">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7357,7 +9283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="267">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7366,7 +9292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="266">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7375,7 +9301,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="265">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7384,7 +9310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="264">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7393,7 +9319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="263">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7402,7 +9328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="262">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -7412,7 +9338,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="8">
+  <chartFormats count="11">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7506,6 +9432,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
@@ -7537,9 +9499,9 @@
     <tabular pivotCacheId="761359562">
       <items count="11">
         <i x="5"/>
-        <i x="3"/>
+        <i x="3" s="1"/>
         <i x="8"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
         <i x="0"/>
         <i x="1"/>
         <i x="7"/>
@@ -7558,13 +9520,14 @@
   <pivotTables>
     <pivotTable tabId="5" name="PivotTable2"/>
     <pivotTable tabId="5" name="PivotTable7"/>
+    <pivotTable tabId="5" name="PivotTable3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1819495771">
       <items count="3">
         <i x="1"/>
-        <i x="0"/>
-        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -7878,8 +9841,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7889,8 +9852,8 @@
     <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="2.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -8084,15 +10047,15 @@
       <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="30">
-        <v>64</v>
+      <c r="F11" s="43">
+        <v>234</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="47">
-        <v>12.489999999999998</v>
+      <c r="I11" s="48">
+        <v>8.99</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -8106,18 +10069,18 @@
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="33">
-        <v>3</v>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="43">
+        <v>175</v>
       </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="47">
-        <v>4.99</v>
+      <c r="H12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="49">
+        <v>19.989999999999998</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -8127,24 +10090,24 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="30">
-        <v>76</v>
+      <c r="E13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="46">
+        <v>152</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="48">
-        <v>4.99</v>
+      <c r="I13" s="49">
+        <v>1.29</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -8165,8 +10128,8 @@
       <c r="E14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="30">
-        <v>88</v>
+      <c r="F14" s="43">
+        <v>130</v>
       </c>
       <c r="G14" s="12"/>
       <c r="J14" s="12"/>
@@ -8177,11 +10140,11 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="32">
-        <v>1203.1100000000001</v>
+      <c r="A15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="45">
+        <v>3102.3</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -8196,10 +10159,10 @@
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31">
-        <v>1283.6100000000001</v>
+        <v>5</v>
+      </c>
+      <c r="B16" s="44">
+        <v>2363.04</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -8216,6 +10179,12 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="45">
+        <v>536.75</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="G17" s="12"/>
@@ -8339,10 +10308,10 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -8356,10 +10325,10 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="23" t="s">
         <v>32</v>
       </c>
       <c r="H26" s="12"/>
@@ -8376,10 +10345,10 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="4">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="G27" s="47">
+        <v>13</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -8396,12 +10365,6 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="21">
-        <v>13</v>
-      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -8417,12 +10380,6 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="4">
-        <v>6</v>
-      </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -8594,42 +10551,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="43" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8646,34 +10603,34 @@
       <c r="D2" s="2">
         <v>95</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="41">
         <v>1.99</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="41">
         <v>189.05</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>IF(AND(E2&gt;10,F2&lt;500),"DISCOUNT","No discount")</f>
         <v>No discount</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="42">
         <f>F2*0.2</f>
         <v>37.81</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="38">
         <f>AVERAGEIF(C2:C44,K2,E2:E44)</f>
         <v>11.912857142857144</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="31">
         <f t="shared" ref="P2:P12" si="0">COUNTIFS(B$2:B$44, O2, C$2:C$44, "Pencil")</f>
         <v>2</v>
       </c>
@@ -8691,27 +10648,27 @@
       <c r="D3" s="2">
         <v>50</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="41">
         <v>19.989999999999998</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="41">
         <v>999.5</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" ref="G3:G44" si="1">IF(AND(E3&gt;10,F3&lt;500),"DISCOUNT","No discount")</f>
         <v>No discount</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="42">
         <f t="shared" ref="H3:H44" si="2">F3*0.2</f>
         <v>199.9</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="38">
+      <c r="P3" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8729,27 +10686,27 @@
       <c r="D4" s="2">
         <v>36</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="41">
         <v>4.99</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="41">
         <v>179.64</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="42">
         <f t="shared" si="2"/>
         <v>35.927999999999997</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8767,27 +10724,27 @@
       <c r="D5" s="2">
         <v>27</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="41">
         <v>19.989999999999998</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="41">
         <v>539.73</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="42">
         <f t="shared" si="2"/>
         <v>107.94600000000001</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8805,27 +10762,27 @@
       <c r="D6" s="2">
         <v>56</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="41">
         <v>2.99</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="41">
         <v>167.44</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="42">
         <f t="shared" si="2"/>
         <v>33.488</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8843,24 +10800,24 @@
       <c r="D7" s="2">
         <v>60</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="41">
         <v>4.99</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="41">
         <v>299.39999999999998</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="42">
         <f t="shared" si="2"/>
         <v>59.879999999999995</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -8878,24 +10835,24 @@
       <c r="D8" s="2">
         <v>75</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="41">
         <v>1.99</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="41">
         <v>149.25</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="42">
         <f t="shared" si="2"/>
         <v>29.85</v>
       </c>
-      <c r="O8" s="36" t="s">
+      <c r="O8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8913,17 +10870,17 @@
       <c r="D9" s="2">
         <v>90</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="41">
         <v>4.99</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="41">
         <v>449.1</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="42">
         <f t="shared" si="2"/>
         <v>89.820000000000007</v>
       </c>
@@ -8933,10 +10890,10 @@
       <c r="L9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8954,17 +10911,17 @@
       <c r="D10" s="2">
         <v>32</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="41">
         <v>1.99</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="41">
         <v>63.68</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="42">
         <f t="shared" si="2"/>
         <v>12.736000000000001</v>
       </c>
@@ -8978,10 +10935,10 @@
       <c r="M10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="36" t="s">
+      <c r="O10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8999,27 +10956,27 @@
       <c r="D11" s="2">
         <v>60</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="41">
         <v>8.99</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="41">
         <v>539.4</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="42">
         <f t="shared" si="2"/>
         <v>107.88</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9037,27 +10994,27 @@
       <c r="D12" s="2">
         <v>90</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="41">
         <v>4.99</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="41">
         <v>449.1</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="42">
         <f t="shared" si="2"/>
         <v>89.820000000000007</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9075,17 +11032,17 @@
       <c r="D13" s="2">
         <v>29</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="41">
         <v>1.99</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="41">
         <v>57.71</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="42">
         <f t="shared" si="2"/>
         <v>11.542000000000002</v>
       </c>
@@ -9103,17 +11060,17 @@
       <c r="D14" s="2">
         <v>81</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="41">
         <v>19.989999999999998</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="41">
         <v>1619.19</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="42">
         <f t="shared" si="2"/>
         <v>323.83800000000002</v>
       </c>
@@ -9131,17 +11088,17 @@
       <c r="D15" s="2">
         <v>35</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="41">
         <v>4.99</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="41">
         <v>174.65</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="42">
         <f t="shared" si="2"/>
         <v>34.93</v>
       </c>
@@ -9159,17 +11116,17 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="41">
         <v>125</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="41">
         <v>250</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>DISCOUNT</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="42">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -9187,17 +11144,17 @@
       <c r="D17" s="2">
         <v>16</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="41">
         <v>15.99</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="41">
         <v>255.84</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>DISCOUNT</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="42">
         <f t="shared" si="2"/>
         <v>51.168000000000006</v>
       </c>
@@ -9215,17 +11172,17 @@
       <c r="D18" s="2">
         <v>28</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="41">
         <v>8.99</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="41">
         <v>251.72</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="42">
         <f t="shared" si="2"/>
         <v>50.344000000000001</v>
       </c>
@@ -9243,17 +11200,17 @@
       <c r="D19" s="2">
         <v>64</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="41">
         <v>8.99</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="41">
         <v>575.36</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="42">
         <f t="shared" si="2"/>
         <v>115.072</v>
       </c>
@@ -9271,17 +11228,17 @@
       <c r="D20" s="2">
         <v>15</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="41">
         <v>19.989999999999998</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="41">
         <v>299.85000000000002</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>DISCOUNT</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="42">
         <f t="shared" si="2"/>
         <v>59.970000000000006</v>
       </c>
@@ -9299,17 +11256,17 @@
       <c r="D21" s="2">
         <v>96</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="41">
         <v>4.99</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="41">
         <v>479.04</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="42">
         <f t="shared" si="2"/>
         <v>95.808000000000007</v>
       </c>
@@ -9327,17 +11284,17 @@
       <c r="D22" s="2">
         <v>67</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="41">
         <v>1.29</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="41">
         <v>86.43</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="42">
         <f t="shared" si="2"/>
         <v>17.286000000000001</v>
       </c>
@@ -9355,17 +11312,17 @@
       <c r="D23" s="2">
         <v>74</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="41">
         <v>15.99</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="41">
         <v>1183.26</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="42">
         <f t="shared" si="2"/>
         <v>236.65200000000002</v>
       </c>
@@ -9383,17 +11340,17 @@
       <c r="D24" s="2">
         <v>46</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="41">
         <v>8.99</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="41">
         <v>413.54</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="42">
         <f t="shared" si="2"/>
         <v>82.708000000000013</v>
       </c>
@@ -9411,17 +11368,17 @@
       <c r="D25" s="2">
         <v>87</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="41">
         <v>15</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="41">
         <v>1305</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="42">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
@@ -9439,17 +11396,17 @@
       <c r="D26" s="2">
         <v>4</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="41">
         <v>4.99</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="41">
         <v>19.96</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="42">
         <f t="shared" si="2"/>
         <v>3.9920000000000004</v>
       </c>
@@ -9467,17 +11424,17 @@
       <c r="D27" s="2">
         <v>7</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="41">
         <v>19.989999999999998</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="41">
         <v>139.93</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>DISCOUNT</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="42">
         <f t="shared" si="2"/>
         <v>27.986000000000004</v>
       </c>
@@ -9495,17 +11452,17 @@
       <c r="D28" s="2">
         <v>50</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="41">
         <v>4.99</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="41">
         <v>249.5</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="42">
         <f t="shared" si="2"/>
         <v>49.900000000000006</v>
       </c>
@@ -9523,17 +11480,17 @@
       <c r="D29" s="2">
         <v>66</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="41">
         <v>1.99</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="41">
         <v>131.34</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="42">
         <f t="shared" si="2"/>
         <v>26.268000000000001</v>
       </c>
@@ -9551,17 +11508,17 @@
       <c r="D30" s="2">
         <v>96</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="41">
         <v>4.99</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="41">
         <v>479.04</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="42">
         <f t="shared" si="2"/>
         <v>95.808000000000007</v>
       </c>
@@ -9579,17 +11536,17 @@
       <c r="D31" s="2">
         <v>53</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="41">
         <v>1.29</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="41">
         <v>68.37</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="42">
         <f t="shared" si="2"/>
         <v>13.674000000000001</v>
       </c>
@@ -9607,17 +11564,17 @@
       <c r="D32" s="2">
         <v>80</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="41">
         <v>8.99</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="41">
         <v>719.2</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="42">
         <f t="shared" si="2"/>
         <v>143.84</v>
       </c>
@@ -9635,17 +11592,17 @@
       <c r="D33" s="2">
         <v>5</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="41">
         <v>125</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="41">
         <v>625</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="42">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
@@ -9663,17 +11620,17 @@
       <c r="D34" s="2">
         <v>62</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="41">
         <v>4.99</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="41">
         <v>309.38</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34" s="42">
         <f t="shared" si="2"/>
         <v>61.876000000000005</v>
       </c>
@@ -9691,17 +11648,17 @@
       <c r="D35" s="2">
         <v>55</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="41">
         <v>12.49</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="41">
         <v>686.95</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35" s="42">
         <f t="shared" si="2"/>
         <v>137.39000000000001</v>
       </c>
@@ -9719,17 +11676,17 @@
       <c r="D36" s="2">
         <v>42</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="41">
         <v>23.95</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="41">
         <v>1005.9</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="42">
         <f t="shared" si="2"/>
         <v>201.18</v>
       </c>
@@ -9747,17 +11704,17 @@
       <c r="D37" s="2">
         <v>3</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="41">
         <v>275</v>
       </c>
-      <c r="F37" s="49">
+      <c r="F37" s="41">
         <v>825</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37" s="42">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
@@ -9775,17 +11732,17 @@
       <c r="D38" s="2">
         <v>7</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="41">
         <v>1.29</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F38" s="41">
         <v>9.0299999999999994</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38" s="42">
         <f t="shared" si="2"/>
         <v>1.806</v>
       </c>
@@ -9803,17 +11760,17 @@
       <c r="D39" s="2">
         <v>76</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="41">
         <v>1.99</v>
       </c>
-      <c r="F39" s="49">
+      <c r="F39" s="41">
         <v>151.24</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="42">
         <f t="shared" si="2"/>
         <v>30.248000000000005</v>
       </c>
@@ -9831,17 +11788,17 @@
       <c r="D40" s="2">
         <v>57</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="41">
         <v>19.989999999999998</v>
       </c>
-      <c r="F40" s="49">
+      <c r="F40" s="41">
         <v>1139.43</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="42">
         <f t="shared" si="2"/>
         <v>227.88600000000002</v>
       </c>
@@ -9859,17 +11816,17 @@
       <c r="D41" s="2">
         <v>14</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="41">
         <v>1.29</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F41" s="41">
         <v>18.059999999999999</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H41" s="50">
+      <c r="H41" s="42">
         <f t="shared" si="2"/>
         <v>3.6120000000000001</v>
       </c>
@@ -9887,17 +11844,17 @@
       <c r="D42" s="2">
         <v>11</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="41">
         <v>4.99</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="41">
         <v>54.89</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H42" s="50">
+      <c r="H42" s="42">
         <f t="shared" si="2"/>
         <v>10.978000000000002</v>
       </c>
@@ -9915,17 +11872,17 @@
       <c r="D43" s="2">
         <v>94</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="41">
         <v>19.989999999999998</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="41">
         <v>1879.06</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H43" s="50">
+      <c r="H43" s="42">
         <f t="shared" si="2"/>
         <v>375.81200000000001</v>
       </c>
@@ -9943,23 +11900,23 @@
       <c r="D44" s="2">
         <v>28</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="41">
         <v>4.99</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="41">
         <v>139.72</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No discount</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="42">
         <f t="shared" si="2"/>
         <v>27.944000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="4"/>
@@ -9975,12 +11932,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F46:F1048576">
-    <cfRule type="top10" dxfId="3" priority="6" rank="10"/>
-    <cfRule type="top10" dxfId="2" priority="7" rank="5"/>
+    <cfRule type="top10" dxfId="201" priority="6" rank="10"/>
+    <cfRule type="top10" dxfId="200" priority="7" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F44">
-    <cfRule type="top10" dxfId="1" priority="1" rank="5"/>
-    <cfRule type="top10" dxfId="0" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="199" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="198" priority="2" rank="5"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 K2" xr:uid="{31B4F352-034A-40DD-987C-339BDDEE8A33}">
